--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168526.213670164</v>
+        <v>1190773.040372566</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6981913.895222551</v>
+        <v>7089451.944923416</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>72.18053195861758</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,13 +671,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>119.2857410102</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -795,7 +795,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -823,10 +823,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>100.176219543324</v>
+        <v>147.4577865076247</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>282.0893919446178</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>287.0790000802538</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>159.582856075998</v>
+        <v>44.61002514734303</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>327.2879775827834</v>
+        <v>344.993045319737</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.7853418074774</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,10 +1585,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>187.5234134555186</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1661,10 +1661,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>347.609727487044</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022899</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>16.05512456153583</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>255.3659184736024</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1898,7 +1898,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>75.86622810093061</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,10 +2059,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>39.88277234054614</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,16 +2719,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>64.90507698037602</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225723</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,10 +3247,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3272,7 +3272,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>155.4300230108121</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>161.6379250432767</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>427.3730215257293</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3803,7 +3803,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>127.6561220736178</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,13 +3958,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.9861727434596</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>33.08339867820155</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4141,19 +4141,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>130.5953288477701</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1072.077256853988</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="C2" t="n">
-        <v>1037.975188077816</v>
+        <v>449.9616071239689</v>
       </c>
       <c r="D2" t="n">
-        <v>609.3935138150839</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>579.6591730137832</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>555.832147463395</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>154.4343160866589</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1098.582142958435</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>1094.336423298492</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.5714734656729</v>
+        <v>786.69763527904</v>
       </c>
       <c r="C4" t="n">
-        <v>301.0097619488978</v>
+        <v>614.135923762265</v>
       </c>
       <c r="D4" t="n">
-        <v>135.1317691504205</v>
+        <v>448.2579309637877</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705518</v>
+        <v>1014.117305964932</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.39009218466</v>
+        <v>786.69763527904</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1233.250449524036</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1199.148380747863</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>763.2385959223075</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.2998161802693</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663907</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1679.712849597734</v>
       </c>
       <c r="W5" t="n">
-        <v>1407.204642120565</v>
+        <v>1678.897799049171</v>
       </c>
       <c r="X5" t="n">
-        <v>988.0621786998757</v>
+        <v>1259.755335628482</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>1255.509615968539</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>793.8545506536184</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1535.988625963248</v>
+        <v>2295.899508015258</v>
       </c>
       <c r="U7" t="n">
-        <v>1257.555625216353</v>
+        <v>2017.466507268363</v>
       </c>
       <c r="V7" t="n">
-        <v>970.6001170867833</v>
+        <v>1730.510999138793</v>
       </c>
       <c r="W7" t="n">
-        <v>698.5737126730747</v>
+        <v>1458.484594725085</v>
       </c>
       <c r="X7" t="n">
-        <v>453.1819580064872</v>
+        <v>1213.092840058497</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.7622873205955</v>
+        <v>985.6731693726056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.6806259663152</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>418.0989517035836</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847289</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939367</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776222</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>2029.841770713472</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245547</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874947</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107585</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>531.9906641340331</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1607.050630386892</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1607.050630386892</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257034</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.8119928040993</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>612.2502812873242</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>446.3722884888469</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>276.6142847395841</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>99.90723070134032</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230864</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181361</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423107</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.0250289532</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.0250289532</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.0250289532</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523506</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315497</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.51554725239</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125429</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442445</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376272</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787305</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366616</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666269</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2638.610404686867</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2392.730958265322</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2114.297957518428</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>2114.297957518428</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1842.271553104719</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438132</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5911,10 +5911,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5969,49 +5969,49 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6069,25 +6069,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477116</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309365</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324589</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6148,10 +6148,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6178,19 +6178,19 @@
         <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
         <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
         <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066699</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903948</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736197</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258797</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6537,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
         <v>5113.04201353898</v>
@@ -6777,7 +6777,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
@@ -6938,49 +6938,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477105</v>
+        <v>1083.781082102103</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>911.2193705853284</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7111,34 +7111,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506982</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821091</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674083</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181458</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7360,22 +7360,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2396.40845011473</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455156</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305237</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>934.7637604887017</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2009.823726741561</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2009.823726741561</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410831</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981137</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814533</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773128</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526185</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399223</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.38389671624</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650067</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.9114920611</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.76902864041</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940064</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.713625393142</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>837.1519138763674</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>671.27392107789</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2568.557051026812</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011778</v>
+        <v>2322.677604605267</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264884</v>
+        <v>2044.244603858372</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135314</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.778718721606</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.386964055018</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1201.53224411213</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872687</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146349</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510709</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344105</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.6447693027</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055757</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633331</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950348</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884174</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874518</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>998.0484328177142</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>825.4867213009393</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>659.6087285024621</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>527.6942549188559</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>350.9872008806121</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>185.3959259064398</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460366</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503606</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177142</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111851</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9407,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9948,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>491.6235431002729</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>267.5985112554913</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>81.78272691405274</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>11.3810530784677</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>227.3655273957935</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>178.3951296148086</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>81.78272691405269</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>229.4233680290215</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627249</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>88.19489769745817</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>35.15749310933379</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>8.789189859680448</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>81.78272691405263</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.388026562681652</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>29.99283294136551</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.1593012355732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>184.7831561774902</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>37.46509486399998</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>579072.3460578667</v>
+        <v>593868.3888850211</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>579072.3460578667</v>
+        <v>596532.448938601</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>595786.8121080332</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595786.8121080335</v>
+        <v>620929.6963953228</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604193.9434601547</v>
+        <v>620929.6963953227</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612522.565043201</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595786.8121080333</v>
+        <v>620929.6963953224</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178062</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="E2" t="n">
-        <v>379142.9234787572</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="F2" t="n">
-        <v>379142.9234787573</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.99886501</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="N2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>389793.1127167612</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="P2" t="n">
-        <v>379142.9234787571</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752569</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="G4" t="n">
-        <v>92321.21116848527</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="K4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="L4" t="n">
-        <v>94878.44464875288</v>
-      </c>
-      <c r="M4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="N4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>93593.82973779328</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="P4" t="n">
-        <v>91036.59625752564</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11598.71831634396</v>
+        <v>-11598.71831634393</v>
       </c>
       <c r="C6" t="n">
-        <v>130592.5823433661</v>
+        <v>83847.87542308118</v>
       </c>
       <c r="D6" t="n">
-        <v>130592.582343366</v>
+        <v>142480.8345396227</v>
       </c>
       <c r="E6" t="n">
-        <v>-19768.03707845334</v>
+        <v>40168.17128803634</v>
       </c>
       <c r="F6" t="n">
-        <v>214586.9849435841</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="G6" t="n">
-        <v>210919.2318534323</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="H6" t="n">
-        <v>210143.7498685054</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="I6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="J6" t="n">
-        <v>111532.0395034786</v>
+        <v>111508.815164096</v>
       </c>
       <c r="K6" t="n">
-        <v>222546.5048484687</v>
+        <v>169477.4258703138</v>
       </c>
       <c r="L6" t="n">
-        <v>222546.5048484688</v>
+        <v>213130.9787824637</v>
       </c>
       <c r="M6" t="n">
-        <v>26945.32556540112</v>
+        <v>70323.10957109852</v>
       </c>
       <c r="N6" t="n">
-        <v>222546.5048484688</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="O6" t="n">
-        <v>219885.04689577</v>
+        <v>222523.2805090862</v>
       </c>
       <c r="P6" t="n">
-        <v>214586.984943584</v>
+        <v>222523.2805090862</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760707</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760707</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>359.3701550186823</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>166.9531120010159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.88420416844608</v>
+        <v>20.60263720414537</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>147.34760544867</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27783,16 +27783,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.83779588133126</v>
+        <v>198.8106268099862</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>104.2627093945165</v>
+        <v>86.55764165756295</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-8.06866097220871e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,10 +35419,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111851</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37084,7 +37084,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>-5.881569965118661e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37479,7 +37479,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>491.6235431002729</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,10 +38026,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
